--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_277.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_277.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,618 +488,668 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3238636363636364</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
-        </is>
+          <t>isophonics_167</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.162280701754386</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj/B', 'C:min']]</t>
+          <t>[['G/5', 'C/9', 'G']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(81.42, 90.04)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(16.24, 19.08)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:00.727609', '0:00:08.204625')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(15.027029, 21.737596)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(75.52, 79.7)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:01.600000', '0:00:12.540000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:07.560000', '0:00:20.920000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2980072463768116</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_27</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1542207792207792</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E', 'A', 'E', 'A']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(9.06, 13.12)]</t>
+          <t>[['A:7', 'D', 'D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(10.953139, 28.356495)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:00:08.340000', '0:00:15.040000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:09.820000', '0:00:12.930000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1916666666666667</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D/5', 'A', 'D', 'A/3']]</t>
-        </is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jaah_14</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09137529137529138</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G', 'D']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(12.743, 17.058)]</t>
+          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(50.461714, 57.636679)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:01:06.980000', '0:01:17.380000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:20.080000', '0:01:27.620000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_273</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1287878787878788</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C/5', 'G', 'C/5']]</t>
-        </is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2697674418604651</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C']]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(12.094553, 16.853782)]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(20.801, 27.165)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:00:44.820000', '0:01:00.840000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:11.500000', '0:00:37.580000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_298</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3980769230769231</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G']]</t>
-        </is>
+          <t>isophonics_76</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_203</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1004464285714286</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['F', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(0.344657, 11.337709)]</t>
+          <t>[['C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(18.32, 25.82)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:08.605000', '0:00:11.726000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:53.783786', '0:00:58.683197')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1189809630459127</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'E', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'D', 'G', 'C']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(51.315598, 61.516031)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(16.069954, 22.954671)]</t>
+          <t>[('0:02:04.920000', '0:02:09.320000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.04807692307692308</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(77.72, 88.0), (46.52, 48.94), (99.6, 111.62)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(262.92, 266.9), (23.3, 26.86), (7.62, 11.12)]</t>
+          <t>[('0:01:12.080000', '0:01:19.580000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:10.340000', '0:01:17.220000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_166</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2303571428571429</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'G']]</t>
-        </is>
+          <t>isophonics_146</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4833333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb', 'Eb']]</t>
+          <t>[['A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(17.839297, 22.785147)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(8.359, 13.688)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:05.915850', '0:00:17.734807')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:02:08.540000', '0:02:13.900000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>mid</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>schubert-winterreise_166</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>isophonics_196</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1116352201257862</v>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>[['D', 'G/5', 'D']]</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(67.14, 70.82)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(19.708503, 25.501882)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:01:07.140000', '0:01:10.820000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1169415292353823</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(3.0, 5.28)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(16.58, 22.66)]</t>
+          <t>[('0:01:06.880000', '0:01:14.940000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:03.040000', '0:01:05.240000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.115546218487395</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E', 'B:7', 'E'], ['E/5', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(61.683832, 65.956303), (30.035034, 41.761111)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(68.04, 74.94), (0.74, 21.5)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:01:56.700000', '0:02:02.320000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:01:52.140000', '0:01:57.460000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_297</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1277089783281734</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_180</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_123</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(12.971, 19.435)]</t>
+          <t>[['F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(18.675377, 23.261318)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:04.840000', '0:01:33.920000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:05.840000', '0:01:44.720000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_56</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_83</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0533434650455927</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb:7', 'Eb:7'], ['Bb:min7', 'Eb:7', 'Ab'], ['Bb:min7', 'Eb:7', 'Ab:7']]</t>
-        </is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:7', 'D:7'], ['A:min7', 'D:7', 'G'], ['A:min7', 'D:7', 'G:7']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(31.66, 34.89), (13.21, 15.93), (21.9, 24.63)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(4.06, 7.55), (14.53, 17.43), (18.01, 20.32)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:02:00.400000', '0:02:07.200000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:01:56.700000', '0:02:02.320000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2077922077922078</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj'], ['A:maj/E', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(7.76, 14.32), (19.78, 23.12)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(74.38, 84.38), (72.82, 80.0)]</t>
+          <t>[('0:00:31.260000', '0:00:45.880000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:18.160000', '0:00:47.440000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_223</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_175</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1213675213675214</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A', 'A', 'E', 'F#:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C', 'C', 'G', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(16.585419, 22.076938)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(11.651179, 17.734807)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
